--- a/RailsClient/uploadfiles/template/导入包装物流转记录模板.xlsx
+++ b/RailsClient/uploadfiles/template/导入包装物流转记录模板.xlsx
@@ -22,7 +22,7 @@
     <t>日期</t>
   </si>
   <si>
-    <t>类型</t>
+    <t> 包装物类型</t>
   </si>
   <si>
     <t>常州莱尼入库数量</t>
@@ -145,17 +145,17 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.2352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.6235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.98039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.9686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="14.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.2941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.6980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.0352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="14.9490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.2941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.35" outlineLevel="0" r="1">
@@ -213,7 +213,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.69411764705882"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -238,7 +238,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.69411764705882"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
